--- a/03_CONTABILIDADE_ANALITICA/dados/alocacao_diaria.xlsx
+++ b/03_CONTABILIDADE_ANALITICA/dados/alocacao_diaria.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001</t>
+          <t>99.990</t>
         </is>
       </c>
       <c r="D2" t="n">
